--- a/RAK3172-Breakout-BOM.xlsx
+++ b/RAK3172-Breakout-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/OneDrive/devt/github/_Lora/RAK3172-Breakout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDA0C9-D65D-4141-8208-A658A2AE1375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91B22DB-B84A-1149-B09E-38659E99A72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15080" yWindow="3960" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,15 +57,9 @@
     <t>LED-SMD Red Diffused</t>
   </si>
   <si>
-    <t>SMD Top Button 1.57N;4P-L4.6*W3.2*H2.5mm</t>
-  </si>
-  <si>
     <t>K1,K2</t>
   </si>
   <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
     <t>SMD RES 1K 0805</t>
   </si>
   <si>
@@ -120,10 +114,16 @@
     <t>19-217-R6C-AL1M2VY-3T</t>
   </si>
   <si>
-    <t>SKRPABE010</t>
-  </si>
-  <si>
     <t>GRM21BR60G107ME11L</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
+  </si>
+  <si>
+    <t>B3U-1000P-2P-SMD</t>
+  </si>
+  <si>
+    <t>Tactile Switch 3x2.5mm SMD</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,13 +1164,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1178,42 +1178,42 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1235,27 +1235,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>32</v>
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
